--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.123723333333333</v>
+        <v>0.667449</v>
       </c>
       <c r="N2">
-        <v>3.37117</v>
+        <v>2.002347</v>
       </c>
       <c r="O2">
-        <v>0.0874683595079124</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="P2">
-        <v>0.09211404964065721</v>
+        <v>0.05743692635237437</v>
       </c>
       <c r="Q2">
-        <v>0.7872918045666666</v>
+        <v>0.315528505362</v>
       </c>
       <c r="R2">
-        <v>7.0856262411</v>
+        <v>2.839756548258</v>
       </c>
       <c r="S2">
-        <v>0.003528976460920307</v>
+        <v>0.001804200888707109</v>
       </c>
       <c r="T2">
-        <v>0.004045865770003303</v>
+        <v>0.001951212113363244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.47633</v>
       </c>
       <c r="O3">
-        <v>0.7129007170798384</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="P3">
-        <v>0.7507648755663697</v>
+        <v>0.7881530736897923</v>
       </c>
       <c r="Q3">
-        <v>6.416730520433334</v>
+        <v>4.329701763846667</v>
       </c>
       <c r="R3">
-        <v>57.7505746839</v>
+        <v>38.96731587462</v>
       </c>
       <c r="S3">
-        <v>0.02876251325281088</v>
+        <v>0.02475735674406574</v>
       </c>
       <c r="T3">
-        <v>0.03297535960284258</v>
+        <v>0.02677465390702306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.247236</v>
+        <v>0.4726029999999999</v>
       </c>
       <c r="N4">
-        <v>0.741708</v>
+        <v>1.417809</v>
       </c>
       <c r="O4">
-        <v>0.01924435195908088</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="P4">
-        <v>0.02026647351835493</v>
+        <v>0.04066956981718631</v>
       </c>
       <c r="Q4">
-        <v>0.17321601396</v>
+        <v>0.223417397014</v>
       </c>
       <c r="R4">
-        <v>1.55894412564</v>
+        <v>2.010756573126</v>
       </c>
       <c r="S4">
-        <v>0.0007764277900183852</v>
+        <v>0.001277506974473924</v>
       </c>
       <c r="T4">
-        <v>0.0008901511963317217</v>
+        <v>0.001381601737978196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.943811</v>
+        <v>1.4922995</v>
       </c>
       <c r="N5">
-        <v>3.887622</v>
+        <v>2.984599</v>
       </c>
       <c r="O5">
-        <v>0.1513023306716375</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="P5">
-        <v>0.106225614813881</v>
+        <v>0.08561263005581461</v>
       </c>
       <c r="Q5">
-        <v>1.36185342471</v>
+        <v>0.7054666810310001</v>
       </c>
       <c r="R5">
-        <v>8.171120548259999</v>
+        <v>4.232800086186001</v>
       </c>
       <c r="S5">
-        <v>0.006104405826592515</v>
+        <v>0.004033878369908675</v>
       </c>
       <c r="T5">
-        <v>0.004665678911627649</v>
+        <v>0.002908379877379808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H6">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I6">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J6">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.373651</v>
+        <v>0.3268606666666667</v>
       </c>
       <c r="N6">
-        <v>1.120953</v>
+        <v>0.9805820000000001</v>
       </c>
       <c r="O6">
-        <v>0.02908424078153073</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="P6">
-        <v>0.03062898646073726</v>
+        <v>0.02812780008483244</v>
       </c>
       <c r="Q6">
-        <v>0.26178362711</v>
+        <v>0.1545194578386667</v>
       </c>
       <c r="R6">
-        <v>2.35605264399</v>
+        <v>1.390675120548</v>
       </c>
       <c r="S6">
-        <v>0.001173425472698796</v>
+        <v>0.0008835466159712551</v>
       </c>
       <c r="T6">
-        <v>0.001345297143864745</v>
+        <v>0.0009555404115999659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.123723333333333</v>
+        <v>0.667449</v>
       </c>
       <c r="N7">
-        <v>3.37117</v>
+        <v>2.002347</v>
       </c>
       <c r="O7">
-        <v>0.0874683595079124</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="P7">
-        <v>0.09211404964065721</v>
+        <v>0.05743692635237437</v>
       </c>
       <c r="Q7">
-        <v>13.33366656697778</v>
+        <v>7.91969175372</v>
       </c>
       <c r="R7">
-        <v>120.0029991028</v>
+        <v>71.27722578347999</v>
       </c>
       <c r="S7">
-        <v>0.05976716025708379</v>
+        <v>0.04528502071137697</v>
       </c>
       <c r="T7">
-        <v>0.06852125836831921</v>
+        <v>0.0489749680975179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.47633</v>
       </c>
       <c r="O8">
-        <v>0.7129007170798384</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="P8">
-        <v>0.7507648755663697</v>
+        <v>0.7881530736897923</v>
       </c>
       <c r="Q8">
         <v>108.6745025330222</v>
@@ -948,10 +948,10 @@
         <v>978.0705227971999</v>
       </c>
       <c r="S8">
-        <v>0.4871253061656692</v>
+        <v>0.6214038691209007</v>
       </c>
       <c r="T8">
-        <v>0.5584745672698797</v>
+        <v>0.6720375565208598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.247236</v>
+        <v>0.4726029999999999</v>
       </c>
       <c r="N9">
-        <v>0.741708</v>
+        <v>1.417809</v>
       </c>
       <c r="O9">
-        <v>0.01924435195908088</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="P9">
-        <v>0.02026647351835493</v>
+        <v>0.04066956981718631</v>
       </c>
       <c r="Q9">
-        <v>2.93360677808</v>
+        <v>5.607724458173333</v>
       </c>
       <c r="R9">
-        <v>26.40246100272</v>
+        <v>50.46952012356</v>
       </c>
       <c r="S9">
-        <v>0.01314967233926533</v>
+        <v>0.03206512653889494</v>
       </c>
       <c r="T9">
-        <v>0.01507570531947345</v>
+        <v>0.0346778807785932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J10">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.943811</v>
+        <v>1.4922995</v>
       </c>
       <c r="N10">
-        <v>3.887622</v>
+        <v>2.984599</v>
       </c>
       <c r="O10">
-        <v>0.1513023306716375</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="P10">
-        <v>0.106225614813881</v>
+        <v>0.08561263005581461</v>
       </c>
       <c r="Q10">
-        <v>23.06450971908</v>
+        <v>17.70704884452667</v>
       </c>
       <c r="R10">
-        <v>138.38705831448</v>
+        <v>106.24229306716</v>
       </c>
       <c r="S10">
-        <v>0.1033849347969538</v>
+        <v>0.101249404471469</v>
       </c>
       <c r="T10">
-        <v>0.07901848660861419</v>
+        <v>0.0729996553089369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>35.59684</v>
       </c>
       <c r="I11">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J11">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.373651</v>
+        <v>0.3268606666666667</v>
       </c>
       <c r="N11">
-        <v>1.120953</v>
+        <v>0.9805820000000001</v>
       </c>
       <c r="O11">
-        <v>0.02908424078153073</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="P11">
-        <v>0.03062898646073726</v>
+        <v>0.02812780008483244</v>
       </c>
       <c r="Q11">
-        <v>4.433598287613334</v>
+        <v>3.878402284542223</v>
       </c>
       <c r="R11">
-        <v>39.90238458852</v>
+        <v>34.90562056088</v>
       </c>
       <c r="S11">
-        <v>0.01987327176964047</v>
+        <v>0.02217681359884349</v>
       </c>
       <c r="T11">
-        <v>0.02278411060010101</v>
+        <v>0.02398384104603264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.123723333333333</v>
+        <v>0.667449</v>
       </c>
       <c r="N12">
-        <v>3.37117</v>
+        <v>2.002347</v>
       </c>
       <c r="O12">
-        <v>0.0874683595079124</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="P12">
-        <v>0.09211404964065721</v>
+        <v>0.05743692635237437</v>
       </c>
       <c r="Q12">
-        <v>0.5137490775755554</v>
+        <v>0.25290977508</v>
       </c>
       <c r="R12">
-        <v>4.62374169818</v>
+        <v>2.27618797572</v>
       </c>
       <c r="S12">
-        <v>0.002302841705028994</v>
+        <v>0.001446145223673362</v>
       </c>
       <c r="T12">
-        <v>0.002640139012342154</v>
+        <v>0.001563981093112042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.47633</v>
       </c>
       <c r="O13">
-        <v>0.7129007170798384</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="P13">
-        <v>0.7507648755663697</v>
+        <v>0.7881530736897923</v>
       </c>
       <c r="Q13">
-        <v>4.187252257424444</v>
+        <v>3.470443654533333</v>
       </c>
       <c r="R13">
-        <v>37.68527031682</v>
+        <v>31.2339928908</v>
       </c>
       <c r="S13">
-        <v>0.01876904416719991</v>
+        <v>0.01984409465171277</v>
       </c>
       <c r="T13">
-        <v>0.0215181467410386</v>
+        <v>0.02146104577683448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H14">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I14">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J14">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.247236</v>
+        <v>0.4726029999999999</v>
       </c>
       <c r="N14">
-        <v>0.741708</v>
+        <v>1.417809</v>
       </c>
       <c r="O14">
-        <v>0.01924435195908088</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="P14">
-        <v>0.02026647351835493</v>
+        <v>0.04066956981718631</v>
       </c>
       <c r="Q14">
-        <v>0.113032508248</v>
+        <v>0.17907872876</v>
       </c>
       <c r="R14">
-        <v>1.017292574232</v>
+        <v>1.61170855884</v>
       </c>
       <c r="S14">
-        <v>0.0005066597398985057</v>
+        <v>0.00102397721944853</v>
       </c>
       <c r="T14">
-        <v>0.0005808702102137462</v>
+        <v>0.001107413684862859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H15">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I15">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J15">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.943811</v>
+        <v>1.4922995</v>
       </c>
       <c r="N15">
-        <v>3.887622</v>
+        <v>2.984599</v>
       </c>
       <c r="O15">
-        <v>0.1513023306716375</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="P15">
-        <v>0.106225614813881</v>
+        <v>0.08561263005581461</v>
       </c>
       <c r="Q15">
-        <v>0.8886805840979999</v>
+        <v>0.5654621265400001</v>
       </c>
       <c r="R15">
-        <v>5.332083504588</v>
+        <v>3.39277275924</v>
       </c>
       <c r="S15">
-        <v>0.003983444060217178</v>
+        <v>0.00323332838046824</v>
       </c>
       <c r="T15">
-        <v>0.003044599503270268</v>
+        <v>0.002331192548804531</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H16">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I16">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J16">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.373651</v>
+        <v>0.3268606666666667</v>
       </c>
       <c r="N16">
-        <v>1.120953</v>
+        <v>0.9805820000000001</v>
       </c>
       <c r="O16">
-        <v>0.02908424078153073</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="P16">
-        <v>0.03062898646073726</v>
+        <v>0.02812780008483244</v>
       </c>
       <c r="Q16">
-        <v>0.1708275078846667</v>
+        <v>0.1238540438133333</v>
       </c>
       <c r="R16">
-        <v>1.537447570962</v>
+        <v>1.11468639432</v>
       </c>
       <c r="S16">
-        <v>0.0007657214906923609</v>
+        <v>0.0007082009140873548</v>
       </c>
       <c r="T16">
-        <v>0.0008778767449585678</v>
+        <v>0.0007659070621855215</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.123723333333333</v>
+        <v>0.667449</v>
       </c>
       <c r="N17">
-        <v>3.37117</v>
+        <v>2.002347</v>
       </c>
       <c r="O17">
-        <v>0.0874683595079124</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="P17">
-        <v>0.09211404964065721</v>
+        <v>0.05743692635237437</v>
       </c>
       <c r="Q17">
-        <v>4.766992263128333</v>
+        <v>1.033449331293</v>
       </c>
       <c r="R17">
-        <v>28.60195357877</v>
+        <v>6.200695987758</v>
       </c>
       <c r="S17">
-        <v>0.02136768525772784</v>
+        <v>0.005909292410248115</v>
       </c>
       <c r="T17">
-        <v>0.01633160725700432</v>
+        <v>0.004260531815665017</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H18">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I18">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J18">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.47633</v>
       </c>
       <c r="O18">
-        <v>0.7129007170798384</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="P18">
-        <v>0.7507648755663697</v>
+        <v>0.7881530736897923</v>
       </c>
       <c r="Q18">
-        <v>38.85281742812166</v>
+        <v>14.18105596327</v>
       </c>
       <c r="R18">
-        <v>233.11690456873</v>
+        <v>85.08633577962</v>
       </c>
       <c r="S18">
-        <v>0.1741548398560337</v>
+        <v>0.08108767777536691</v>
       </c>
       <c r="T18">
-        <v>0.1331088703399252</v>
+        <v>0.05846328240944809</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H19">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I19">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J19">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.247236</v>
+        <v>0.4726029999999999</v>
       </c>
       <c r="N19">
-        <v>0.741708</v>
+        <v>1.417809</v>
       </c>
       <c r="O19">
-        <v>0.01924435195908088</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="P19">
-        <v>0.02026647351835493</v>
+        <v>0.04066956981718631</v>
       </c>
       <c r="Q19">
-        <v>1.048809848658</v>
+        <v>0.731758163271</v>
       </c>
       <c r="R19">
-        <v>6.292859091947999</v>
+        <v>4.390548979626</v>
       </c>
       <c r="S19">
-        <v>0.004701211477658737</v>
+        <v>0.004184213806538762</v>
       </c>
       <c r="T19">
-        <v>0.003593198727853582</v>
+        <v>0.003016769996926707</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H20">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I20">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J20">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.943811</v>
+        <v>1.4922995</v>
       </c>
       <c r="N20">
-        <v>3.887622</v>
+        <v>2.984599</v>
       </c>
       <c r="O20">
-        <v>0.1513023306716375</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="P20">
-        <v>0.106225614813881</v>
+        <v>0.08561263005581461</v>
       </c>
       <c r="Q20">
-        <v>8.245919367445499</v>
+        <v>2.310612376921501</v>
       </c>
       <c r="R20">
-        <v>32.98367746978199</v>
+        <v>9.242449507686002</v>
       </c>
       <c r="S20">
-        <v>0.03696171505605698</v>
+        <v>0.01321214670958689</v>
       </c>
       <c r="T20">
-        <v>0.01883355501730546</v>
+        <v>0.006350537142913788</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H21">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I21">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J21">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.373651</v>
+        <v>0.3268606666666667</v>
       </c>
       <c r="N21">
-        <v>1.120953</v>
+        <v>0.9805820000000001</v>
       </c>
       <c r="O21">
-        <v>0.02908424078153073</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="P21">
-        <v>0.03062898646073726</v>
+        <v>0.02812780008483244</v>
       </c>
       <c r="Q21">
-        <v>1.5850800399655</v>
+        <v>0.5060970012580001</v>
       </c>
       <c r="R21">
-        <v>9.510480239793001</v>
+        <v>3.036582007548001</v>
       </c>
       <c r="S21">
-        <v>0.007105002385731303</v>
+        <v>0.002893876920546698</v>
       </c>
       <c r="T21">
-        <v>0.005430448227043064</v>
+        <v>0.002086451953067293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H22">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I22">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J22">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.123723333333333</v>
+        <v>0.667449</v>
       </c>
       <c r="N22">
-        <v>3.37117</v>
+        <v>2.002347</v>
       </c>
       <c r="O22">
-        <v>0.0874683595079124</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="P22">
-        <v>0.09211404964065721</v>
+        <v>0.05743692635237437</v>
       </c>
       <c r="Q22">
-        <v>0.1119250914466667</v>
+        <v>0.11097007074</v>
       </c>
       <c r="R22">
-        <v>1.00732582302</v>
+        <v>0.9987306366599999</v>
       </c>
       <c r="S22">
-        <v>0.0005016958271514601</v>
+        <v>0.00063452999284264</v>
       </c>
       <c r="T22">
-        <v>0.0005751792329882088</v>
+        <v>0.0006862332327161618</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H23">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I23">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J23">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.47633</v>
       </c>
       <c r="O23">
-        <v>0.7129007170798384</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="P23">
-        <v>0.7507648755663697</v>
+        <v>0.7881530736897923</v>
       </c>
       <c r="Q23">
-        <v>0.9122324735533334</v>
+        <v>1.5227382086</v>
       </c>
       <c r="R23">
-        <v>8.21009226198</v>
+        <v>13.7046438774</v>
       </c>
       <c r="S23">
-        <v>0.00408901363812459</v>
+        <v>0.008707060004206072</v>
       </c>
       <c r="T23">
-        <v>0.0046879316126837</v>
+        <v>0.009416535075626781</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H24">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I24">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J24">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.247236</v>
+        <v>0.4726029999999999</v>
       </c>
       <c r="N24">
-        <v>0.741708</v>
+        <v>1.417809</v>
       </c>
       <c r="O24">
-        <v>0.01924435195908088</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="P24">
-        <v>0.02026647351835493</v>
+        <v>0.04066956981718631</v>
       </c>
       <c r="Q24">
-        <v>0.024625200072</v>
+        <v>0.07857497477999999</v>
       </c>
       <c r="R24">
-        <v>0.221626800648</v>
+        <v>0.70717477302</v>
       </c>
       <c r="S24">
-        <v>0.0001103806122399212</v>
+        <v>0.0004492939208949451</v>
       </c>
       <c r="T24">
-        <v>0.0001265480644824255</v>
+        <v>0.0004859036188253428</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H25">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I25">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J25">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.943811</v>
+        <v>1.4922995</v>
       </c>
       <c r="N25">
-        <v>3.887622</v>
+        <v>2.984599</v>
       </c>
       <c r="O25">
-        <v>0.1513023306716375</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="P25">
-        <v>0.106225614813881</v>
+        <v>0.08561263005581461</v>
       </c>
       <c r="Q25">
-        <v>0.193607463222</v>
+        <v>0.24810971487</v>
       </c>
       <c r="R25">
-        <v>1.161644779332</v>
+        <v>1.48865828922</v>
       </c>
       <c r="S25">
-        <v>0.000867830931816942</v>
+        <v>0.001418698344074342</v>
       </c>
       <c r="T25">
-        <v>0.0006632947730633835</v>
+        <v>0.001022865177779588</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H26">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I26">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J26">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.373651</v>
+        <v>0.3268606666666667</v>
       </c>
       <c r="N26">
-        <v>1.120953</v>
+        <v>0.9805820000000001</v>
       </c>
       <c r="O26">
-        <v>0.02908424078153073</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="P26">
-        <v>0.03062898646073726</v>
+        <v>0.02812780008483244</v>
       </c>
       <c r="Q26">
-        <v>0.03721638690200001</v>
+        <v>0.05434385444</v>
       </c>
       <c r="R26">
-        <v>0.334947482118</v>
+        <v>0.4890946899600001</v>
       </c>
       <c r="S26">
-        <v>0.000166819662767796</v>
+        <v>0.0003107396916926096</v>
       </c>
       <c r="T26">
-        <v>0.0001912537447698668</v>
+        <v>0.00033605961194702</v>
       </c>
     </row>
   </sheetData>
